--- a/preselected_topics_sorted.xlsx
+++ b/preselected_topics_sorted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>x</t>
   </si>
@@ -240,81 +240,6 @@
   </si>
   <si>
     <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
 </sst>
 </file>
@@ -544,7 +469,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +477,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +485,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +493,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +501,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +509,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +517,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +525,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +533,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +541,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +549,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -872,7 +797,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +805,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -888,7 +813,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
@@ -896,7 +821,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
@@ -904,7 +829,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
@@ -912,7 +837,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
@@ -920,7 +845,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
@@ -928,7 +853,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="72">
@@ -936,7 +861,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +869,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +877,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +885,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="76">
@@ -968,206 +893,6 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="n">
         <v>5.0</v>
       </c>
     </row>
